--- a/data/trans_dic/P78C3_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P78C3_2023-Provincia-trans_dic.xlsx
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>77,78%</t>
+          <t>77,52%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>35,52%</t>
+          <t>32,81%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,31</t>
+          <t>0,0; 43,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>41,29; 100,0</t>
+          <t>38,7; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,22; 67,72</t>
+          <t>10,61; 64,42</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>40,58%</t>
+          <t>41,06%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>12,85%</t>
         </is>
       </c>
     </row>
@@ -689,7 +689,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,55</t>
+          <t>0,0; 60,72</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>81,62%</t>
+          <t>80,28%</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>67,98%</t>
+          <t>68,41%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>72,29%</t>
+          <t>72,07%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>70,12%</t>
+          <t>70,2%</t>
         </is>
       </c>
     </row>
@@ -884,12 +884,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,5; 100,0</t>
+          <t>9,52; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>28,28; 97,38</t>
+          <t>28,75; 97,24</t>
         </is>
       </c>
     </row>
@@ -911,12 +911,12 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>50,95%</t>
+          <t>51,75%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>77,85%</t>
+          <t>78,11%</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>11,84; 100,0</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>22,29%</t>
+          <t>20,23%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>59,18%</t>
+          <t>59,29%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>38,49%</t>
+          <t>36,58%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,91; 47,57</t>
+          <t>5,79; 45,03</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>38,48; 79,02</t>
+          <t>38,65; 79,21</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>22,24; 54,6</t>
+          <t>20,59; 52,66</t>
         </is>
       </c>
     </row>
